--- a/src/excel/AntigenSupportingData- Zoster-508.xlsx
+++ b/src/excel/AntigenSupportingData- Zoster-508.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.59 - 508\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.63 - 508\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA4E410-FF7C-4596-BF65-08EC34016D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2A5D5B-81F6-4DF4-82CF-CA5B3882CC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="338">
   <si>
     <t>Resources</t>
   </si>
@@ -1058,6 +1058,48 @@
   </si>
   <si>
     <t>Publication Date: 11/08/2024</t>
+  </si>
+  <si>
+    <t>HIV/AIDS - severely immunocompromised (154)</t>
+  </si>
+  <si>
+    <t>Administer to persons who have HIV/AIDS and are severely immunocompromised [See the CDC general recommendations for a definition of "severely immunocompromised"].</t>
+  </si>
+  <si>
+    <t>HIV/AIDS - not severely immunocompromised (155)</t>
+  </si>
+  <si>
+    <t>Administer to persons who have HIV/AIDS and are not severely immunocompromised [See the CDC general recommendations for a definition of "severely immunocompromised"].</t>
+  </si>
+  <si>
+    <t>Risk 2-dose -&gt; Indications -&gt; New Indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Indication for: 
+* HIV Infection - Severe IC (154)
+* HIV Infection - not Severe IC (155)
+</t>
+  </si>
+  <si>
+    <t>HIV Infection without severity (186) was already included. This means documentation of 154 or 155 would also imply HIV Infection of specific severity.</t>
+  </si>
+  <si>
+    <t>Publication Date: 05/23/2025</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; New Antigen Contraindication</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; Removed Vaccine Contraindication</t>
+  </si>
+  <si>
+    <t>This was previously a Vaccine Contraindication. However, with only one active U.S. product on the market, this was moved up to an Antigen Contraindication. See next change for removal.</t>
+  </si>
+  <si>
+    <t>This was removed as a Vaccine Contraindication and reinserted as an Antigen Contraindication as there is only one active U.S. product on the market. See previous change for addition.</t>
+  </si>
+  <si>
+    <t>Publication Date: 08/07/2025</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1908,6 +1950,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1928,7 +1983,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2451,6 +2506,9 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -3280,7 +3338,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3297,10 +3355,10 @@
         <v>45</v>
       </c>
       <c r="B1" s="175">
-        <v>4.59</v>
-      </c>
-      <c r="C1" s="178" t="s">
-        <v>324</v>
+        <v>4.63</v>
+      </c>
+      <c r="C1" s="175" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3327,154 +3385,122 @@
       <c r="A3" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="167">
         <v>1</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>322</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>10</v>
+        <v>333</v>
+      </c>
+      <c r="D3" s="173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="173" t="s">
+        <v>185</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="167">
         <v>2</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>303</v>
+        <v>334</v>
+      </c>
+      <c r="D4" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="173" t="s">
+        <v>10</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="175">
+        <v>4.62</v>
+      </c>
+      <c r="C6" s="175" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="57">
-        <v>3</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="152" t="s">
+      <c r="B7" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="57">
-        <v>4</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>309</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>310</v>
-      </c>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" ht="315" x14ac:dyDescent="0.25">
-      <c r="A7" s="157" t="s">
+      <c r="F7" s="53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="57">
-        <v>5</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>313</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>314</v>
-      </c>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="B8" s="167">
+        <v>1</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" s="173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="173" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="175">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="C9" s="178" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="B10" s="175">
+        <v>4.59</v>
+      </c>
+      <c r="C10" s="178" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B11" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C11" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D11" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E11" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F11" s="53" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="152" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="57">
-        <v>1</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3482,59 +3508,60 @@
         <v>46</v>
       </c>
       <c r="B12" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>299</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>171</v>
+        <v>322</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>10</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="152" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>171</v>
+        <v>303</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="152" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="172" t="s">
-        <v>252</v>
+        <v>305</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>170</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3542,187 +3569,192 @@
         <v>46</v>
       </c>
       <c r="B15" s="57">
+        <v>4</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+      <c r="A16" s="157" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="57">
         <v>5</v>
       </c>
-      <c r="C15" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="152" t="s">
+      <c r="C16" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>313</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="175">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="C18" s="178" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57">
-        <v>6</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="D16" s="172" t="s">
-        <v>271</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="157" t="s">
+      <c r="B19" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="57">
-        <v>7</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="172" t="s">
-        <v>272</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="175">
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="F19" s="53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="57">
+        <v>1</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="152" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="59">
-        <v>2</v>
+        <v>164</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>171</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="152" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="152" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="59">
-        <v>2</v>
+        <v>294</v>
+      </c>
+      <c r="D23" s="172" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>295</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="152" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="D24" s="56">
-        <v>1</v>
-      </c>
-      <c r="E24" s="59">
-        <v>2</v>
+        <v>294</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>295</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="152" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>60</v>
+        <v>294</v>
+      </c>
+      <c r="D25" s="172" t="s">
+        <v>271</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>170</v>
+        <v>295</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3730,27 +3762,27 @@
         <v>46</v>
       </c>
       <c r="B26" s="57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>10</v>
+        <v>294</v>
+      </c>
+      <c r="D26" s="172" t="s">
+        <v>272</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="F26" s="59" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="55">
-        <v>4.5999999999999996</v>
+      <c r="B28" s="175">
+        <v>4.24</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3773,7 +3805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="152" t="s">
         <v>46</v>
       </c>
@@ -3781,19 +3813,19 @@
         <v>1</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D30" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>232</v>
+        <v>10</v>
+      </c>
+      <c r="E30" s="59">
+        <v>2</v>
       </c>
       <c r="F30" s="59" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="152" t="s">
         <v>46</v>
       </c>
@@ -3801,152 +3833,184 @@
         <v>2</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D31" s="56" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="F31" s="59" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="157" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="152" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="57">
         <v>3</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="D32" s="56" t="s">
-        <v>237</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>238</v>
+        <v>10</v>
+      </c>
+      <c r="E32" s="59">
+        <v>2</v>
       </c>
       <c r="F32" s="59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="152" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="57">
+        <v>4</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="D33" s="56">
+        <v>1</v>
+      </c>
+      <c r="E33" s="59">
+        <v>2</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="152" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="57">
+        <v>5</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="157" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="57">
+        <v>6</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="55">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="152" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="57">
+        <v>1</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="59" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="55">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="152" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="57">
-        <v>1</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="59" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="157" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="57">
+      <c r="B40" s="57">
         <v>2</v>
       </c>
-      <c r="C37" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="55">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C40" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="157" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" s="58" t="s">
         <v>159</v>
       </c>
       <c r="D41" s="56" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F41" s="59" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3954,7 +4018,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="55">
-        <v>4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3985,625 +4049,741 @@
         <v>1</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="D45" s="56" t="s">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="F45" s="59" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="152" t="s">
+      <c r="A46" s="157" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="57">
         <v>2</v>
       </c>
       <c r="C46" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="D46" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="55">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="157" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="57">
+        <v>1</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="152" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="57">
+        <v>1</v>
+      </c>
+      <c r="C54" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D54" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E54" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="F54" s="59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="152" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="57">
+        <v>2</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="F46" s="59" t="s">
+      <c r="F55" s="59" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="157" t="s">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="57">
+      <c r="B56" s="57">
         <v>3</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C56" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="D47" s="56" t="s">
+      <c r="D56" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="E47" s="59" t="s">
+      <c r="E56" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="F47" s="59" t="s">
+      <c r="F56" s="59" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="126" t="s">
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="125">
+      <c r="B58" s="125">
         <v>3.7</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="86" t="s">
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="124" t="s">
+      <c r="B59" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="122" t="s">
+      <c r="C59" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="123" t="s">
+      <c r="D59" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="122" t="s">
+      <c r="E59" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="122" t="s">
+      <c r="F59" s="122" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="89" t="s">
+    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="120">
+      <c r="B60" s="120">
         <v>1</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C60" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="D51" s="56" t="s">
+      <c r="D60" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="156" t="s">
+      <c r="E60" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="F51" s="156" t="s">
+      <c r="F60" s="156" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="152" t="s">
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="167">
+      <c r="B61" s="167">
         <v>2</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C61" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="D52" s="56" t="s">
+      <c r="D61" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="E52" s="156" t="s">
+      <c r="E61" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="F52" s="156" t="s">
+      <c r="F61" s="156" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="152" t="s">
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="167">
+      <c r="B62" s="167">
         <v>3</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C62" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="D53" s="56" t="s">
+      <c r="D62" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="E53" s="156" t="s">
+      <c r="E62" s="156" t="s">
         <v>204</v>
       </c>
-      <c r="F53" s="156" t="s">
+      <c r="F62" s="156" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="157" t="s">
+    <row r="63" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="167">
+      <c r="B63" s="167">
         <v>4</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C63" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="143" t="s">
+      <c r="D63" s="143" t="s">
         <v>198</v>
       </c>
-      <c r="E54" s="143" t="s">
+      <c r="E63" s="143" t="s">
         <v>199</v>
       </c>
-      <c r="F54" s="59" t="s">
+      <c r="F63" s="59" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="128"/>
-      <c r="B55" s="127"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="127"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="127"/>
-    </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="126" t="s">
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="128"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="127"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="127"/>
+      <c r="F64" s="127"/>
+    </row>
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="125">
+      <c r="B65" s="125">
         <v>3.6</v>
       </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="86" t="s">
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="124" t="s">
+      <c r="B66" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="122" t="s">
+      <c r="C66" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="123" t="s">
+      <c r="D66" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="E57" s="122" t="s">
+      <c r="E66" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="F57" s="122" t="s">
+      <c r="F66" s="122" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="91" t="s">
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="120">
+      <c r="B67" s="120">
         <v>1</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C67" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="56" t="s">
+      <c r="D67" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="E58" s="156" t="s">
+      <c r="E67" s="156" t="s">
         <v>172</v>
       </c>
-      <c r="F58" s="156" t="s">
+      <c r="F67" s="156" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="128"/>
-      <c r="B59" s="127"/>
-      <c r="C59" s="127"/>
-      <c r="D59" s="127"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="127"/>
-    </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="126" t="s">
+    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="128"/>
+      <c r="B68" s="127"/>
+      <c r="C68" s="127"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="127"/>
+    </row>
+    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="125">
+      <c r="B69" s="125">
         <v>3.4</v>
       </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="86" t="s">
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="124" t="s">
+      <c r="B70" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="122" t="s">
+      <c r="C70" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="123" t="s">
+      <c r="D70" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="E61" s="122" t="s">
+      <c r="E70" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="122" t="s">
+      <c r="F70" s="122" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="91" t="s">
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="120">
+      <c r="B71" s="120">
         <v>1</v>
       </c>
-      <c r="C62" s="59" t="s">
+      <c r="C71" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D71" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="E62" s="156" t="s">
+      <c r="E71" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="F62" s="156" t="s">
+      <c r="F71" s="156" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="128"/>
-      <c r="B63" s="127"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="127"/>
-      <c r="E63" s="127"/>
-      <c r="F63" s="127"/>
-    </row>
-    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
+    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="128"/>
+      <c r="B72" s="127"/>
+      <c r="C72" s="127"/>
+      <c r="D72" s="127"/>
+      <c r="E72" s="127"/>
+      <c r="F72" s="127"/>
+    </row>
+    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="55">
+      <c r="B73" s="55">
         <v>3.2</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B74" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C74" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D74" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="53" t="s">
+      <c r="E74" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F65" s="53" t="s">
+      <c r="F74" s="53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="152" t="s">
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="B66" s="57">
+      <c r="B75" s="57">
         <v>1</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="C75" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="143" t="s">
+      <c r="D75" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="E66" s="143" t="s">
+      <c r="E75" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="F66" s="59" t="s">
+      <c r="F75" s="59" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="152" t="s">
+    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="57">
+      <c r="B76" s="57">
         <v>2</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C76" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="D67" s="143" t="s">
+      <c r="D76" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="E67" s="143" t="s">
+      <c r="E76" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="F67" s="59" t="s">
+      <c r="F76" s="59" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="157" t="s">
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="57">
+      <c r="B77" s="57">
         <v>3</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="C77" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="D68" s="143" t="s">
+      <c r="D77" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="E68" s="143" t="s">
+      <c r="E77" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="F68" s="59" t="s">
+      <c r="F77" s="59" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="55">
+      <c r="B79" s="55">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="34" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="B80" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C80" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D71" s="53" t="s">
+      <c r="D80" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="E71" s="53" t="s">
+      <c r="E80" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F71" s="53" t="s">
+      <c r="F80" s="53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="132"/>
-      <c r="B72" s="57">
+    <row r="81" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="132"/>
+      <c r="B81" s="57">
         <v>1</v>
       </c>
-      <c r="C72" s="58" t="s">
+      <c r="C81" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="56" t="s">
+      <c r="D81" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E72" s="59" t="s">
+      <c r="E81" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="F72" s="59" t="s">
+      <c r="F81" s="59" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="30" x14ac:dyDescent="0.3">
-      <c r="A73" s="140" t="s">
+    <row r="82" spans="1:18" ht="30" x14ac:dyDescent="0.3">
+      <c r="A82" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="B73" s="129">
+      <c r="B82" s="129">
         <v>2</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C82" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="D73" s="130" t="s">
+      <c r="D82" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E73" s="59" t="s">
+      <c r="E82" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F73" s="59" t="s">
+      <c r="F82" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="G73" s="131"/>
-      <c r="H73" s="131"/>
-      <c r="I73" s="131"/>
-      <c r="J73" s="131"/>
-      <c r="K73" s="131"/>
-      <c r="L73" s="131"/>
-      <c r="M73" s="131"/>
-      <c r="N73" s="131"/>
-      <c r="O73" s="131"/>
-      <c r="P73" s="131"/>
-      <c r="Q73" s="131"/>
-      <c r="R73" s="131"/>
-    </row>
-    <row r="74" spans="1:18" ht="45" x14ac:dyDescent="0.3">
-      <c r="A74" s="93" t="s">
+      <c r="G82" s="131"/>
+      <c r="H82" s="131"/>
+      <c r="I82" s="131"/>
+      <c r="J82" s="131"/>
+      <c r="K82" s="131"/>
+      <c r="L82" s="131"/>
+      <c r="M82" s="131"/>
+      <c r="N82" s="131"/>
+      <c r="O82" s="131"/>
+      <c r="P82" s="131"/>
+      <c r="Q82" s="131"/>
+      <c r="R82" s="131"/>
+    </row>
+    <row r="83" spans="1:18" ht="45" x14ac:dyDescent="0.3">
+      <c r="A83" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="B74" s="80">
+      <c r="B83" s="80">
         <v>3</v>
       </c>
-      <c r="C74" s="58" t="s">
+      <c r="C83" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="139" t="s">
+      <c r="D83" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="139" t="s">
+      <c r="E83" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="F74" s="59" t="s">
+      <c r="F83" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="G74" s="131"/>
-      <c r="H74" s="131"/>
-      <c r="I74" s="131"/>
-      <c r="J74" s="131"/>
-      <c r="K74" s="131"/>
-      <c r="L74" s="131"/>
-      <c r="M74" s="131"/>
-      <c r="N74" s="131"/>
-      <c r="O74" s="131"/>
-      <c r="P74" s="131"/>
-      <c r="Q74" s="131"/>
-      <c r="R74" s="131"/>
-    </row>
-    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="126" t="s">
+      <c r="G83" s="131"/>
+      <c r="H83" s="131"/>
+      <c r="I83" s="131"/>
+      <c r="J83" s="131"/>
+      <c r="K83" s="131"/>
+      <c r="L83" s="131"/>
+      <c r="M83" s="131"/>
+      <c r="N83" s="131"/>
+      <c r="O83" s="131"/>
+      <c r="P83" s="131"/>
+      <c r="Q83" s="131"/>
+      <c r="R83" s="131"/>
+    </row>
+    <row r="85" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="125">
+      <c r="B85" s="125">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="86" t="s">
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="124" t="s">
+      <c r="B86" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C77" s="122" t="s">
+      <c r="C86" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="D77" s="123" t="s">
+      <c r="D86" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="E77" s="122" t="s">
+      <c r="E86" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="F77" s="122" t="s">
+      <c r="F86" s="122" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="91" t="s">
+    <row r="87" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="120">
+      <c r="B87" s="120">
         <v>1</v>
       </c>
-      <c r="C78" s="59" t="s">
+      <c r="C87" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="120" t="s">
+      <c r="D87" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="E78" s="59" t="s">
+      <c r="E87" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="F78" s="59" t="s">
+      <c r="F87" s="59" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="128"/>
-      <c r="B79" s="127"/>
-      <c r="C79" s="127"/>
-      <c r="D79" s="127"/>
-      <c r="E79" s="127"/>
-      <c r="F79" s="127"/>
-    </row>
-    <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="126" t="s">
+    <row r="88" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="128"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
+    </row>
+    <row r="89" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="B80" s="125">
+      <c r="B89" s="125">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C80" s="47"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="86" t="s">
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="B81" s="124" t="s">
+      <c r="B90" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C81" s="122" t="s">
+      <c r="C90" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="123" t="s">
+      <c r="D90" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="122" t="s">
+      <c r="E90" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="F81" s="122" t="s">
+      <c r="F90" s="122" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="89" t="s">
+    <row r="91" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B82" s="120">
+      <c r="B91" s="120">
         <v>1</v>
       </c>
-      <c r="C82" s="59" t="s">
+      <c r="C91" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="D82" s="120" t="s">
+      <c r="D91" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="59" t="s">
+      <c r="E91" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="F82" s="59" t="s">
+      <c r="F91" s="59" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="121" t="s">
+    <row r="92" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="B83" s="59">
+      <c r="B92" s="59">
         <v>2</v>
       </c>
-      <c r="C83" s="59" t="s">
+      <c r="C92" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="D83" s="120" t="s">
+      <c r="D92" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="E83" s="59" t="s">
+      <c r="E92" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="F83" s="59" t="s">
+      <c r="F92" s="59" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4851,7 +5031,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4885,7 +5065,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -4904,56 +5084,76 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="160" t="s">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B5" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C5" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D5" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F5" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G5" s="62" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="78" t="s">
+      <c r="B6" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="78" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8006,7 +8206,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D920FB28-DC9C-482F-8FA0-46A621BE3412}">
-  <dimension ref="A1:U70"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -8305,15 +8505,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>264</v>
+      <c r="B20" s="179" t="s">
+        <v>325</v>
       </c>
       <c r="C20" s="173" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="D20" s="63" t="s">
         <v>284</v>
@@ -8324,16 +8524,17 @@
       <c r="F20" s="63" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="172" t="s">
-        <v>307</v>
+      <c r="B21" s="179" t="s">
+        <v>327</v>
       </c>
       <c r="C21" s="173" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D21" s="63" t="s">
         <v>284</v>
@@ -8341,19 +8542,20 @@
       <c r="E21" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="173" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+      <c r="F21" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="172" t="s">
-        <v>267</v>
-      </c>
-      <c r="C22" s="172" t="s">
-        <v>268</v>
+      <c r="B22" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="173" t="s">
+        <v>265</v>
       </c>
       <c r="D22" s="63" t="s">
         <v>284</v>
@@ -8361,19 +8563,19 @@
       <c r="E22" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="172" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="F22" s="63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
         <v>126</v>
       </c>
       <c r="B23" s="172" t="s">
-        <v>269</v>
-      </c>
-      <c r="C23" s="172" t="s">
-        <v>270</v>
+        <v>307</v>
+      </c>
+      <c r="C23" s="173" t="s">
+        <v>308</v>
       </c>
       <c r="D23" s="63" t="s">
         <v>284</v>
@@ -8381,19 +8583,19 @@
       <c r="E23" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="172" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="174" t="s">
+      <c r="F23" s="173" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
         <v>126</v>
       </c>
       <c r="B24" s="172" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C24" s="172" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D24" s="63" t="s">
         <v>284</v>
@@ -8401,19 +8603,19 @@
       <c r="E24" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="174" t="s">
+      <c r="F24" s="172" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="s">
         <v>126</v>
       </c>
       <c r="B25" s="172" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C25" s="172" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D25" s="63" t="s">
         <v>284</v>
@@ -8421,8 +8623,8 @@
       <c r="E25" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="63" t="s">
-        <v>10</v>
+      <c r="F25" s="172" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -8430,10 +8632,10 @@
         <v>126</v>
       </c>
       <c r="B26" s="172" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C26" s="172" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D26" s="63" t="s">
         <v>284</v>
@@ -8450,10 +8652,10 @@
         <v>126</v>
       </c>
       <c r="B27" s="172" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C27" s="172" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D27" s="63" t="s">
         <v>284</v>
@@ -8466,14 +8668,14 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="171" t="s">
+      <c r="A28" s="174" t="s">
         <v>126</v>
       </c>
       <c r="B28" s="172" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C28" s="172" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D28" s="63" t="s">
         <v>284</v>
@@ -8485,1067 +8687,1107 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="I29" s="95"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="105" t="s">
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="174" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="172" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="172" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="171" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="172" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="172" t="s">
+        <v>282</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="I31" s="95"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="106" t="s">
+      <c r="B32" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="I30" s="95"/>
-    </row>
-    <row r="31" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A31" s="86" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="I32" s="95"/>
+    </row>
+    <row r="33" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A33" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="96" t="s">
+      <c r="B33" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="98" t="s">
+      <c r="C33" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="98" t="s">
+      <c r="D33" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="107" t="s">
+      <c r="E33" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="98" t="s">
+      <c r="F33" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="168" t="s">
+      <c r="G33" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H33" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="I31" s="95"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="91" t="s">
+      <c r="I33" s="95"/>
+    </row>
+    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="176" t="s">
+      <c r="B34" s="176" t="s">
         <v>285</v>
       </c>
-      <c r="C32" s="108" t="s">
+      <c r="C34" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="D32" s="108" t="s">
+      <c r="D34" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="E32" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="95"/>
-    </row>
-    <row r="33" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A33" s="82" t="s">
+      <c r="E34" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="95"/>
+    </row>
+    <row r="35" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A35" s="82" t="s">
         <v>105</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="J33" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="K33" s="168" t="s">
-        <v>211</v>
-      </c>
-      <c r="L33" s="168" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="162" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="166" t="s">
-        <v>200</v>
-      </c>
-      <c r="E34" s="162" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="162" t="s">
-        <v>188</v>
-      </c>
-      <c r="G34" s="162" t="s">
-        <v>164</v>
-      </c>
-      <c r="H34" s="162" t="s">
-        <v>164</v>
-      </c>
-      <c r="I34" s="162" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="162" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
-        <v>56</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="168" t="s">
+      <c r="G35" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="F35" s="168" t="s">
+      <c r="L35" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="95"/>
     </row>
     <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="166" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="162" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" s="162" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="95"/>
-    </row>
-    <row r="37" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="B37" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="168" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="168" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="95"/>
+    </row>
+    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="95"/>
+    </row>
+    <row r="39" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A39" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B39" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C39" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D39" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E39" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="111" t="s">
+      <c r="F39" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="112" t="s">
+      <c r="G39" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="95"/>
-    </row>
-    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="158" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="115">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="I38" s="95"/>
-    </row>
-    <row r="39" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="4"/>
       <c r="I39" s="95"/>
     </row>
     <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="113" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B40" s="158" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="176" t="s">
+      <c r="C40" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="115">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="95"/>
+    </row>
+    <row r="41" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="4"/>
+      <c r="I41" s="95"/>
+    </row>
+    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="158" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="176" t="s">
         <v>303</v>
       </c>
-      <c r="D40" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="I40" s="95"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="82" t="s">
+      <c r="D42" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="I42" s="95"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="133" t="s">
+      <c r="B43" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="134"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="136"/>
-      <c r="K41" s="136"/>
-      <c r="L41" s="136"/>
-      <c r="M41" s="136"/>
-      <c r="N41" s="136"/>
-      <c r="O41" s="136"/>
-      <c r="P41" s="136"/>
-      <c r="Q41" s="136"/>
-      <c r="R41" s="136"/>
-    </row>
-    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="137" t="s">
+      <c r="C43" s="134"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="136"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="136"/>
+      <c r="M43" s="136"/>
+      <c r="N43" s="136"/>
+      <c r="O43" s="136"/>
+      <c r="P43" s="136"/>
+      <c r="Q43" s="136"/>
+      <c r="R43" s="136"/>
+    </row>
+    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="138"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="136"/>
-      <c r="M42" s="136"/>
-      <c r="N42" s="136"/>
-      <c r="O42" s="136"/>
-      <c r="P42" s="136"/>
-      <c r="Q42" s="136"/>
-      <c r="R42" s="136"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="86" t="s">
+      <c r="B44" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="138"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="136"/>
+      <c r="K44" s="136"/>
+      <c r="L44" s="136"/>
+      <c r="M44" s="136"/>
+      <c r="N44" s="136"/>
+      <c r="O44" s="136"/>
+      <c r="P44" s="136"/>
+      <c r="Q44" s="136"/>
+      <c r="R44" s="136"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="168" t="s">
+      <c r="B45" s="168" t="s">
         <v>213</v>
       </c>
-      <c r="C43" s="87" t="s">
+      <c r="C45" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="87" t="s">
+      <c r="D45" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="87" t="s">
+      <c r="E45" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="168" t="s">
+      <c r="F45" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="G43" s="168" t="s">
+      <c r="G45" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="H43" s="87" t="s">
+      <c r="H45" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="I43" s="87" t="s">
+      <c r="I45" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="J43" s="87" t="s">
+      <c r="J45" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="K43" s="87" t="s">
+      <c r="K45" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="L43" s="87" t="s">
+      <c r="L45" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="M43" s="87" t="s">
+      <c r="M45" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="N43" s="87" t="s">
+      <c r="N45" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="O43" s="87" t="s">
+      <c r="O45" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="P43" s="87" t="s">
+      <c r="P45" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="Q43" s="87" t="s">
+      <c r="Q45" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="R43" s="87" t="s">
+      <c r="R45" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="S43" s="87" t="s">
+      <c r="S45" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="T43" s="92" t="s">
+      <c r="T45" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="U43" s="88"/>
-    </row>
-    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="89" t="s">
+      <c r="U45" s="88"/>
+    </row>
+    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="M44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="O44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="P44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="R44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="S44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="T44" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="U44" s="88"/>
-    </row>
-    <row r="45" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="86" t="s">
+      <c r="B46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="R46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="S46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="U46" s="88"/>
+    </row>
+    <row r="47" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="96" t="s">
+      <c r="B47" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="134"/>
-      <c r="I45" s="95"/>
-    </row>
-    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="91" t="s">
+      <c r="C47" s="134"/>
+      <c r="I47" s="95"/>
+    </row>
+    <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="109" t="s">
+      <c r="B48" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="138"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="I46" s="95"/>
-    </row>
-    <row r="47" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
+      <c r="C48" s="138"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="I48" s="95"/>
+    </row>
+    <row r="49" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="96" t="s">
+      <c r="B49" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="98" t="s">
+      <c r="C49" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="83"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="I47" s="95"/>
-    </row>
-    <row r="48" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="91" t="s">
+      <c r="D49" s="83"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="I49" s="95"/>
+    </row>
+    <row r="50" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="79"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="10"/>
-      <c r="I48" s="95"/>
-    </row>
-    <row r="49" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="B50" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="79"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="10"/>
+      <c r="I50" s="95"/>
+    </row>
+    <row r="51" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="I49" s="95"/>
-    </row>
-    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="105" t="s">
+      <c r="B51" s="45"/>
+      <c r="I51" s="95"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="158" t="s">
+      <c r="B52" s="158" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="I50" s="95"/>
-    </row>
-    <row r="51" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A51" s="86" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="I52" s="95"/>
+    </row>
+    <row r="53" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A53" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="96" t="s">
+      <c r="B53" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="98" t="s">
+      <c r="C53" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="98" t="s">
+      <c r="D53" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="107" t="s">
+      <c r="E53" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="98" t="s">
+      <c r="F53" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="168" t="s">
+      <c r="G53" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="H51" s="168" t="s">
+      <c r="H53" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="I51" s="95"/>
-    </row>
-    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="89" t="s">
+      <c r="I53" s="95"/>
+    </row>
+    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="95"/>
-    </row>
-    <row r="53" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A53" s="82" t="s">
+      <c r="B54" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="95"/>
+    </row>
+    <row r="55" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A55" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B55" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="98" t="s">
+      <c r="C55" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="107" t="s">
+      <c r="D55" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="99" t="s">
+      <c r="E55" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="F53" s="98" t="s">
+      <c r="F55" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="G53" s="98" t="s">
+      <c r="G55" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="H53" s="98" t="s">
+      <c r="H55" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="I53" s="98" t="s">
+      <c r="I55" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="84" t="s">
+      <c r="J55" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="K53" s="168" t="s">
+      <c r="K55" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="L53" s="168" t="s">
+      <c r="L55" s="168" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="137" t="s">
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="78" t="s">
+      <c r="B56" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="166" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="162" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="85" t="s">
+      <c r="C56" s="166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="G54" s="162" t="s">
+      <c r="G56" s="162" t="s">
         <v>171</v>
       </c>
-      <c r="H54" s="162" t="s">
+      <c r="H56" s="162" t="s">
         <v>164</v>
       </c>
-      <c r="I54" s="162" t="s">
+      <c r="I56" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="J54" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="L54" s="63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="93" t="s">
+      <c r="J56" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="78" t="s">
+      <c r="B57" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="162" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="166" t="s">
+      <c r="C57" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="166" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="162" t="s">
+      <c r="E57" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="162" t="s">
         <v>188</v>
       </c>
-      <c r="G55" s="162" t="s">
+      <c r="G57" s="162" t="s">
         <v>164</v>
       </c>
-      <c r="H55" s="162" t="s">
+      <c r="H57" s="162" t="s">
         <v>164</v>
       </c>
-      <c r="I55" s="162" t="s">
-        <v>10</v>
-      </c>
-      <c r="J55" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="L55" s="63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="119" t="s">
+      <c r="I57" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B58" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C58" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D58" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="168" t="s">
+      <c r="E58" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="F56" s="168" t="s">
+      <c r="F58" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="95"/>
-    </row>
-    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="75" t="s">
+      <c r="G58" s="25"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="95"/>
+    </row>
+    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="25"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="95"/>
-    </row>
-    <row r="58" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+      <c r="B59" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="95"/>
+    </row>
+    <row r="60" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A60" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B60" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C60" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D60" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E60" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="111" t="s">
+      <c r="F60" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="G58" s="112" t="s">
+      <c r="G60" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="I58" s="95"/>
-    </row>
-    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="113" t="s">
+      <c r="I60" s="95"/>
+    </row>
+    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="113" t="s">
         <v>31</v>
-      </c>
-      <c r="B59" s="158" t="s">
-        <v>178</v>
-      </c>
-      <c r="C59" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="D59" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="115">
-        <v>0.5</v>
-      </c>
-      <c r="G59" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="I59" s="95"/>
-    </row>
-    <row r="60" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="4"/>
-      <c r="I60" s="95"/>
-    </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="113" t="s">
-        <v>35</v>
       </c>
       <c r="B61" s="158" t="s">
         <v>178</v>
       </c>
-      <c r="C61" s="176" t="s">
+      <c r="C61" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="115">
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" s="95"/>
+    </row>
+    <row r="62" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A62" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="4"/>
+      <c r="I62" s="95"/>
+    </row>
+    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="158" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="176" t="s">
         <v>303</v>
       </c>
-      <c r="D61" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="I61" s="95"/>
-    </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="113" t="s">
+      <c r="D63" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="I63" s="95"/>
+    </row>
+    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="158" t="s">
+      <c r="B64" s="158" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="176" t="s">
+      <c r="C64" s="176" t="s">
         <v>303</v>
       </c>
-      <c r="D62" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="I62" s="95"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="82" t="s">
+      <c r="D64" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="I64" s="95"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="133" t="s">
+      <c r="B65" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="134"/>
-      <c r="D63" s="135"/>
-      <c r="E63" s="136"/>
-      <c r="F63" s="136"/>
-      <c r="G63" s="136"/>
-      <c r="H63" s="136"/>
-      <c r="I63" s="136"/>
-      <c r="J63" s="136"/>
-      <c r="K63" s="136"/>
-      <c r="L63" s="136"/>
-      <c r="M63" s="136"/>
-      <c r="N63" s="136"/>
-      <c r="O63" s="136"/>
-      <c r="P63" s="136"/>
-      <c r="Q63" s="136"/>
-      <c r="R63" s="136"/>
-    </row>
-    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="137" t="s">
+      <c r="C65" s="134"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="136"/>
+      <c r="F65" s="136"/>
+      <c r="G65" s="136"/>
+      <c r="H65" s="136"/>
+      <c r="I65" s="136"/>
+      <c r="J65" s="136"/>
+      <c r="K65" s="136"/>
+      <c r="L65" s="136"/>
+      <c r="M65" s="136"/>
+      <c r="N65" s="136"/>
+      <c r="O65" s="136"/>
+      <c r="P65" s="136"/>
+      <c r="Q65" s="136"/>
+      <c r="R65" s="136"/>
+    </row>
+    <row r="66" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="138"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="136"/>
-      <c r="F64" s="136"/>
-      <c r="G64" s="136"/>
-      <c r="H64" s="136"/>
-      <c r="I64" s="136"/>
-      <c r="J64" s="136"/>
-      <c r="K64" s="136"/>
-      <c r="L64" s="136"/>
-      <c r="M64" s="136"/>
-      <c r="N64" s="136"/>
-      <c r="O64" s="136"/>
-      <c r="P64" s="136"/>
-      <c r="Q64" s="136"/>
-      <c r="R64" s="136"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="86" t="s">
+      <c r="B66" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="138"/>
+      <c r="D66" s="136"/>
+      <c r="E66" s="136"/>
+      <c r="F66" s="136"/>
+      <c r="G66" s="136"/>
+      <c r="H66" s="136"/>
+      <c r="I66" s="136"/>
+      <c r="J66" s="136"/>
+      <c r="K66" s="136"/>
+      <c r="L66" s="136"/>
+      <c r="M66" s="136"/>
+      <c r="N66" s="136"/>
+      <c r="O66" s="136"/>
+      <c r="P66" s="136"/>
+      <c r="Q66" s="136"/>
+      <c r="R66" s="136"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="168" t="s">
+      <c r="B67" s="168" t="s">
         <v>213</v>
       </c>
-      <c r="C65" s="87" t="s">
+      <c r="C67" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="87" t="s">
+      <c r="D67" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="E65" s="87" t="s">
+      <c r="E67" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="F65" s="168" t="s">
+      <c r="F67" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="G65" s="168" t="s">
+      <c r="G67" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="H65" s="87" t="s">
+      <c r="H67" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="I65" s="87" t="s">
+      <c r="I67" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="J65" s="87" t="s">
+      <c r="J67" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="K65" s="87" t="s">
+      <c r="K67" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="L65" s="87" t="s">
+      <c r="L67" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="M65" s="87" t="s">
+      <c r="M67" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="N65" s="87" t="s">
+      <c r="N67" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="O65" s="87" t="s">
+      <c r="O67" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="P65" s="87" t="s">
+      <c r="P67" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="Q65" s="87" t="s">
+      <c r="Q67" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="R65" s="87" t="s">
+      <c r="R67" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="S65" s="87" t="s">
+      <c r="S67" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="T65" s="92" t="s">
+      <c r="T67" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="U65" s="88"/>
-    </row>
-    <row r="66" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="J66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="K66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="L66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="N66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="O66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="P66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="R66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="S66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="T66" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="U66" s="88"/>
-    </row>
-    <row r="67" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="B67" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" s="134"/>
-      <c r="I67" s="95"/>
+      <c r="U67" s="88"/>
     </row>
     <row r="68" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="K68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="M68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="N68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="O68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="P68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="R68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="S68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="T68" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="U68" s="88"/>
+    </row>
+    <row r="69" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A69" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="109" t="s">
+      <c r="B69" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="134"/>
+      <c r="I69" s="95"/>
+    </row>
+    <row r="70" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="138"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="I68" s="95"/>
-    </row>
-    <row r="69" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="54" t="s">
+      <c r="C70" s="138"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="I70" s="95"/>
+    </row>
+    <row r="71" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A71" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="96" t="s">
+      <c r="B71" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="C69" s="98" t="s">
+      <c r="C71" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="83"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="I69" s="95"/>
-    </row>
-    <row r="70" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="91" t="s">
+      <c r="D71" s="83"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="I71" s="95"/>
+    </row>
+    <row r="72" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="79"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="10"/>
-      <c r="I70" s="95"/>
+      <c r="B72" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="79"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="10"/>
+      <c r="I72" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
